--- a/biology/Botanique/Gentianaceae/Gentianaceae.xlsx
+++ b/biology/Botanique/Gentianaceae/Gentianaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Gentianacées ou des Gentianées (Gentianaceae)[1] regroupe des plantes dicotylédones. Classiquement ce sont, pour la plupart, des plantes herbacées, autotrophes ou saprophytes parfois, des régions froides à tropicales. C'est une famille cosmopolite, qui comprend traditionnellement environ 700 espèces réparties en 80 genres.
-Dans la classification phylogénétique APG (1998)[2] et la classification phylogénétique APG II (2003)[3] la famille des Gentianacées incorpore de nouvelles espèces et inclut des arbustes, arbres et lianes. Elle  comprend dans ce cas, 1 650 espèces réparties en près de 82 genres.
-Dans la classification phylogénétique APG (1998)[2] et la classification phylogénétique APG IV (2016)[4] la famille des Gentianacées incorpore de nouvelles espèces et comprend alors 3 204 espèces réparties en 110 genres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Gentianacées ou des Gentianées (Gentianaceae) regroupe des plantes dicotylédones. Classiquement ce sont, pour la plupart, des plantes herbacées, autotrophes ou saprophytes parfois, des régions froides à tropicales. C'est une famille cosmopolite, qui comprend traditionnellement environ 700 espèces réparties en 80 genres.
+Dans la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003) la famille des Gentianacées incorpore de nouvelles espèces et inclut des arbustes, arbres et lianes. Elle  comprend dans ce cas, 1 650 espèces réparties en près de 82 genres.
+Dans la classification phylogénétique APG (1998) et la classification phylogénétique APG IV (2016) la famille des Gentianacées incorpore de nouvelles espèces et comprend alors 3 204 espèces réparties en 110 genres.
 En France on peut citer les genres :
 Gentiana avec la grande gentiane (Gentiana lutea) aux fleurs jaunes. La fermentation de ses rhizomes permet de distiller un alcool traditionnel dans les régions de moyenne montagne (Jura, Auvergne). C'est un genre bien représenté dans la flore alpine avec une série d'espèces, comme la gentiane des neiges, aux fleurs bleues à corolle soudée en cloche ou en entonnoir.
 Centaurium avec la petite centaurée (Centaurium erythraea) aux petites fleurs roses.
@@ -517,9 +529,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Gentiana, ancien nom grec et latin de cette plante. Selon Pline l'Ancien, la gentiane (certainement Gentiana lutea L.) aurait été découverte par Gentius (ou Genthios), roi des Illyriens (actuelle Albanie)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Gentiana, ancien nom grec et latin de cette plante. Selon Pline l'Ancien, la gentiane (certainement Gentiana lutea L.) aurait été découverte par Gentius (ou Genthios), roi des Illyriens (actuelle Albanie).
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La classification APG y distingue 6 tribus :
 tribu Chironieae (G.Don) Endl.
@@ -560,13 +576,12 @@
 sous-tribu Gentianinae G.Don
 sous-tribu Swertiinae (Griseb.) Rchb.
 tribu Helieae Gilg
-tribu Potalieae Rchb. - à ne pas confondre avec la famille non reconnue des Potaliacées (y compris par BioLib[6]).
+tribu Potalieae Rchb. - à ne pas confondre avec la famille non reconnue des Potaliacées (y compris par BioLib).
 sous-tribu Faroinae Struwe &amp; V.A.Albert
 sous-tribu Lisianthiinae G.Don
 sous-tribu Potaliinae (Mart.) Progel
 tribu Saccifolieae
-incertae sedis Voyria
-Phylogénie</t>
+incertae sedis Voyria</t>
         </is>
       </c>
     </row>
@@ -594,9 +609,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 février 2024)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 février 2024) :
 Adenolisianthus (Spruce ex Progel) Gilg - 1 espèce
 Anthocleista Afzel. ex R.Br. - 26 espèces
 Aripuana Struwe, Maas &amp; V.A.Albert - 1 espèce
@@ -777,7 +794,7 @@
 Waldschmidia (Weber) 1780
 Waldschmidtia Bluff &amp; Fingerh.
 Xestaea Griseb.
-Selon Angiosperm Phylogeny Website                        (6 juil. 2010)[8] :
+Selon Angiosperm Phylogeny Website                        (6 juil. 2010) :
 Anthocleista Afzel. ex R. Brown
 Bartonia Muhl. ex Willd.
 Bisgoeppertia Kuntze
@@ -858,7 +875,7 @@
 Wurdackanthus Maguire
 Zonanthus Griseb.
 Zygostigma Griseb.
-Selon NCBI  (6 juil. 2010)[9] :
+Selon NCBI  (6 juil. 2010) :
 tribu Chironieae
 Bisgoeppertia
 Blackstonia
@@ -946,7 +963,7 @@
 Curtia
 Saccifolium
 Voyriella
-Selon DELTA Angio           (6 juil. 2010)[10] :
+Selon DELTA Angio           (6 juil. 2010) :
 Bartonia
 Belmontia
 Bisgoeppertia
@@ -1024,7 +1041,7 @@
 Wurdackanthus
 Zonanthus
 Zygostigma
-Selon ITIS      (6 juil. 2010)[11] :
+Selon ITIS      (6 juil. 2010) :
 Bartonia Muhl. ex Willd.
 Centaurium Hill
 Cicendia Adans.
